--- a/SRC/BackTest/data/AILabxTest2_3_info_2200_20250912.xlsx
+++ b/SRC/BackTest/data/AILabxTest2_3_info_2200_20250912.xlsx
@@ -27,6 +27,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andy</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Andy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+trend_score = self.trend_score(symbol, "close", 25)
+roc_score1 = self.roc(symbol, "close", 5)
+roc_score2 = self.roc(symbol, "close", 10)
+ma_score1 = self.ma(symbol, "volume", 5)
+ma_score2 = self.ma(symbol, "volume", 19)
+aa = trend_score
+bb = roc_score1 + roc_score2
+cc = ma_score1 / ma_score2
+score = aa * self.w_aa + bb * self.w_bb + cc * self.w_cc
+self.ailabx.roc(target, "close", 20) &gt; self.w_dd</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +107,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +118,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,6 +265,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -551,28 +596,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,118 +629,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,18 +1092,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2201"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,6 +1128,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
@@ -58286,12 +58332,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H2201">
-    <sortState ref="A2:H2201">
+    <sortState ref="A1:H2201">
       <sortCondition ref="A1" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>